--- a/data/trans_orig/P25A$medico-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25A$medico-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>31462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22944</v>
+        <v>22612</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41065</v>
+        <v>42045</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2430754122505771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1772676100610843</v>
+        <v>0.1746973867548923</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3172680275058255</v>
+        <v>0.3248363087308014</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>2974</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7890</v>
+        <v>7941</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0720161902451643</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02189795551742731</v>
+        <v>0.02175167607343716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1910365324679257</v>
+        <v>0.1922795443485019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -785,19 +785,19 @@
         <v>34436</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26140</v>
+        <v>24783</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45941</v>
+        <v>45415</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.201697680953526</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1531046941565558</v>
+        <v>0.1451559490451064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2690786714805102</v>
+        <v>0.2660017136649174</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>16597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9311</v>
+        <v>10491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24550</v>
+        <v>26127</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1282255241426426</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07193473518326585</v>
+        <v>0.08105386923240893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1896718704054609</v>
+        <v>0.2018565146917852</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6488</v>
+        <v>5574</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04533841682081599</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1571100634880404</v>
+        <v>0.1349707199361785</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -856,19 +856,19 @@
         <v>18469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11222</v>
+        <v>12249</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28477</v>
+        <v>28190</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1081758570475599</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06572574289735453</v>
+        <v>0.07174144032449843</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1667943121214626</v>
+        <v>0.1651117270226657</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>3124</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9304</v>
+        <v>8384</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02413355841547742</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007662811381111547</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07188132659638212</v>
+        <v>0.06477186090168728</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -906,19 +906,19 @@
         <v>4894</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1880</v>
+        <v>1857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10631</v>
+        <v>10036</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1184920084581154</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04551049734702169</v>
+        <v>0.04495361987161151</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2574256439684638</v>
+        <v>0.2430147584202977</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -927,19 +927,19 @@
         <v>8017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3913</v>
+        <v>3843</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16044</v>
+        <v>15349</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04695804309217583</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0229197393381376</v>
+        <v>0.02250942263950013</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09396859778857584</v>
+        <v>0.08990349407382278</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>10596</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4968</v>
+        <v>5783</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17299</v>
+        <v>19117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08186393535754814</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03838016552384586</v>
+        <v>0.0446820639509039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1336546465434434</v>
+        <v>0.1476938862970663</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6944</v>
+        <v>8107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0560151427540108</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1681323943937376</v>
+        <v>0.1963076927815047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -998,19 +998,19 @@
         <v>12909</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7098</v>
+        <v>7077</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21029</v>
+        <v>20826</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07561133826185618</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04157154923444246</v>
+        <v>0.04144863767774117</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1231704408467913</v>
+        <v>0.1219801174752581</v>
       </c>
     </row>
     <row r="8">
@@ -1030,16 +1030,16 @@
         <v>963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8533</v>
+        <v>8307</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02327114927224791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007442084659018011</v>
+        <v>0.007438175887367361</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06592680674259391</v>
+        <v>0.06418291435958917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1048,19 +1048,19 @@
         <v>2839</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7788</v>
+        <v>6879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06873048732271547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02081740801730203</v>
+        <v>0.02111115199877915</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1885664292678285</v>
+        <v>0.1665574579747951</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1069,19 +1069,19 @@
         <v>5851</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2041</v>
+        <v>1991</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11947</v>
+        <v>11808</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03426736597861489</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01195218820497858</v>
+        <v>0.0116603653688598</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06997510190112365</v>
+        <v>0.0691592036024687</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>83797</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>72454</v>
+        <v>72610</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>93575</v>
+        <v>93524</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6474120153490888</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5597787803610158</v>
+        <v>0.560981755010322</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7229529577830293</v>
+        <v>0.7225612942263755</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -1119,19 +1119,19 @@
         <v>30615</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24592</v>
+        <v>23793</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35638</v>
+        <v>35573</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7413007813174171</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5954554520614794</v>
+        <v>0.5761107785633776</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8629382139388269</v>
+        <v>0.8613612359071294</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>113</v>
@@ -1140,19 +1140,19 @@
         <v>114412</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>100492</v>
+        <v>100230</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>125669</v>
+        <v>124893</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6701228875517361</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5885887546642325</v>
+        <v>0.5870569614969157</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7360557045996428</v>
+        <v>0.7315122046415213</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>51414</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39662</v>
+        <v>40176</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63789</v>
+        <v>64651</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2751684355080876</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2122677573320209</v>
+        <v>0.2150184804276566</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3413985025434375</v>
+        <v>0.3460129081290581</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1194,19 +1194,19 @@
         <v>5264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2013</v>
+        <v>2106</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11140</v>
+        <v>12842</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06842367352985811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0261657371886771</v>
+        <v>0.02736886923617369</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.144791426191895</v>
+        <v>0.1669152968282732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1215,19 +1215,19 @@
         <v>56679</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43027</v>
+        <v>44636</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71405</v>
+        <v>71368</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2148676430070756</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1631146023913004</v>
+        <v>0.1692132728796822</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2706964631191484</v>
+        <v>0.2705546047727355</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>32459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22542</v>
+        <v>22143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44130</v>
+        <v>44025</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1737197814704595</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1206450158714815</v>
+        <v>0.118511251783404</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2361834785198596</v>
+        <v>0.2356216271888366</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1265,19 +1265,19 @@
         <v>8447</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3936</v>
+        <v>3996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15256</v>
+        <v>15709</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1097918713091059</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05116204070461384</v>
+        <v>0.05193925287661082</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1982864581627418</v>
+        <v>0.2041858272408607</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>38</v>
@@ -1286,19 +1286,19 @@
         <v>40906</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29405</v>
+        <v>30360</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54214</v>
+        <v>55387</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1550740677470373</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1114719764308358</v>
+        <v>0.115092792499639</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.205524943407521</v>
+        <v>0.2099700666334222</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>5148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1979</v>
+        <v>1945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11382</v>
+        <v>11629</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02755093344115734</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01059403914413077</v>
+        <v>0.01040955717337677</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06091778448289116</v>
+        <v>0.06223748098247611</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1336,19 +1336,19 @@
         <v>12354</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6852</v>
+        <v>6389</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20120</v>
+        <v>19926</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1605707153959504</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08905995668500437</v>
+        <v>0.0830393262513623</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2615105118595678</v>
+        <v>0.2589919731959655</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1357,19 +1357,19 @@
         <v>17502</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10115</v>
+        <v>10138</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27781</v>
+        <v>26697</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06634852228179014</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0383459084733304</v>
+        <v>0.03843231745466311</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1053174303356888</v>
+        <v>0.1012069699913173</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>12153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6457</v>
+        <v>6364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20995</v>
+        <v>20929</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06504335575265713</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03455773952899512</v>
+        <v>0.0340603564579921</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1123646994450155</v>
+        <v>0.1120112793342872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1407,19 +1407,19 @@
         <v>8818</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4199</v>
+        <v>4709</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15885</v>
+        <v>15894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1146084305119954</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05457386132827743</v>
+        <v>0.06120323123044719</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2064663090599869</v>
+        <v>0.2065783159119279</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1428,19 +1428,19 @@
         <v>20971</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12346</v>
+        <v>13263</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31386</v>
+        <v>31732</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07949989269106203</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04680384429793458</v>
+        <v>0.05027801759179702</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1189831674022367</v>
+        <v>0.120297034769629</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>8976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4173</v>
+        <v>4006</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16078</v>
+        <v>15545</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04803777104919616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02233238915732513</v>
+        <v>0.02143927045975565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08604947922151082</v>
+        <v>0.08319398087891609</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6881</v>
+        <v>4876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01489170876798512</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08943507744790184</v>
+        <v>0.06337572946838151</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1499,19 +1499,19 @@
         <v>10121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4884</v>
+        <v>5858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17667</v>
+        <v>18709</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03837013156599901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01851373639732138</v>
+        <v>0.02220872234422149</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06697631729801383</v>
+        <v>0.07092485416264883</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>105498</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>91660</v>
+        <v>92010</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>119440</v>
+        <v>119663</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5646208190043891</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4905642048696558</v>
+        <v>0.4924341658729897</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6392403002527165</v>
+        <v>0.6404346453158882</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>51</v>
@@ -1549,19 +1549,19 @@
         <v>53677</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>45522</v>
+        <v>44039</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60950</v>
+        <v>61219</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6976695749628895</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5916845551538501</v>
+        <v>0.5723993345761188</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7922072671195726</v>
+        <v>0.7957051267842212</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>150</v>
@@ -1570,19 +1570,19 @@
         <v>159174</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>142075</v>
+        <v>142221</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>176956</v>
+        <v>176006</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6034268586293067</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5386021765469026</v>
+        <v>0.5391575218560835</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6708351113041652</v>
+        <v>0.6672358746056531</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>30954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22066</v>
+        <v>21171</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40959</v>
+        <v>41421</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2304791453015944</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1643037351859464</v>
+        <v>0.1576386485940184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3049787205766196</v>
+        <v>0.3084188327602444</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7236</v>
+        <v>7249</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03835249173447543</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1823546119206076</v>
+        <v>0.1826677099924101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1645,19 +1645,19 @@
         <v>32476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23977</v>
+        <v>23231</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44058</v>
+        <v>43498</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1866582782320366</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.137812893483374</v>
+        <v>0.1335236532971358</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.253231192773939</v>
+        <v>0.2500138155729903</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>25340</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17539</v>
+        <v>17813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35933</v>
+        <v>35932</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1886802585414178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1305933178432073</v>
+        <v>0.1326311861126286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2675533851902686</v>
+        <v>0.2675510610701529</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1695,19 +1695,19 @@
         <v>5826</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2020</v>
+        <v>2777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10789</v>
+        <v>10697</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.146807849296279</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05090736233913305</v>
+        <v>0.06996704600050194</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2718909896323424</v>
+        <v>0.2695662670827399</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -1716,19 +1716,19 @@
         <v>31166</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20786</v>
+        <v>22144</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41840</v>
+        <v>41957</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1791298643335036</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1194723453086262</v>
+        <v>0.1272752077144302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2404835734719202</v>
+        <v>0.2411522408573963</v>
       </c>
     </row>
     <row r="18">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6657</v>
+        <v>6094</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01403270597979417</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04956971226385372</v>
+        <v>0.0453774390604941</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1766,19 +1766,19 @@
         <v>4633</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1800</v>
+        <v>1755</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9500</v>
+        <v>9423</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1167602975641909</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04536608536593035</v>
+        <v>0.04421706527296034</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2394003573842677</v>
+        <v>0.2374661479478409</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1787,19 +1787,19 @@
         <v>6518</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2643</v>
+        <v>2880</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12055</v>
+        <v>13293</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03746314653354613</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01519375087169925</v>
+        <v>0.01655044588876253</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06929018336763107</v>
+        <v>0.07640493171529826</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>13730</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7428</v>
+        <v>7819</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22355</v>
+        <v>22885</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1022294892918366</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05531003038017734</v>
+        <v>0.05821853030001305</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1664566659693444</v>
+        <v>0.1703997285447028</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1837,19 +1837,19 @@
         <v>4144</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9354</v>
+        <v>9268</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1044336130151778</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02625899261374266</v>
+        <v>0.02610307708017833</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2357235870376055</v>
+        <v>0.2335517330781474</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1858,19 +1858,19 @@
         <v>17874</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10719</v>
+        <v>10401</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27531</v>
+        <v>27202</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1027322129425749</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06161126640420806</v>
+        <v>0.05977943043991228</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1582372621140208</v>
+        <v>0.1563504501835609</v>
       </c>
     </row>
     <row r="20">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6259</v>
+        <v>7250</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01516660511870402</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04660194746771948</v>
+        <v>0.05398386282164152</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1908,19 +1908,19 @@
         <v>3587</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8084</v>
+        <v>8356</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0903823777454566</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02271826724462384</v>
+        <v>0.02287368290832877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2037033568553018</v>
+        <v>0.2105665518120978</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1929,19 +1929,19 @@
         <v>5624</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1955</v>
+        <v>1883</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12484</v>
+        <v>11877</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03232206123380028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01123639364440846</v>
+        <v>0.01082099035879061</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07175497162281388</v>
+        <v>0.06826505038226656</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>77071</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>65434</v>
+        <v>64589</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>89162</v>
+        <v>88124</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5738710818591199</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4872199705684377</v>
+        <v>0.4809273852404904</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6638933604560118</v>
+        <v>0.6561651894723396</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1979,19 +1979,19 @@
         <v>25983</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>20049</v>
+        <v>20409</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31257</v>
+        <v>31720</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6547698874166877</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5052255589100697</v>
+        <v>0.5143085827540811</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7876643424936735</v>
+        <v>0.7993466443007611</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>100</v>
@@ -2000,19 +2000,19 @@
         <v>103055</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>89972</v>
+        <v>89419</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>116692</v>
+        <v>115382</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5923227424621905</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5171258723516039</v>
+        <v>0.5139505533352807</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6707071541676708</v>
+        <v>0.6631735806814996</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>55668</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45030</v>
+        <v>43593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68857</v>
+        <v>68298</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3199586958511849</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2588157602909483</v>
+        <v>0.250556262360755</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3957645060159388</v>
+        <v>0.3925499889644621</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2054,19 +2054,19 @@
         <v>11291</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6165</v>
+        <v>6278</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18836</v>
+        <v>19871</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1216484850395936</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06642101659849513</v>
+        <v>0.06763643045815609</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2029349753108126</v>
+        <v>0.2140938034816066</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -2075,19 +2075,19 @@
         <v>66959</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53256</v>
+        <v>54879</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80048</v>
+        <v>83061</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2509698837775515</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1996103278616835</v>
+        <v>0.20569203930045</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3000263526615226</v>
+        <v>0.3113207528579699</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>43404</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33803</v>
+        <v>32395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>55719</v>
+        <v>56258</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2494702183166471</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1942832584460035</v>
+        <v>0.1861936617884681</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3202485709072575</v>
+        <v>0.3233486641515863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -2125,19 +2125,19 @@
         <v>20254</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13346</v>
+        <v>12849</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29585</v>
+        <v>28876</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2182125676508836</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1437910189300147</v>
+        <v>0.138440324598138</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.318752237503427</v>
+        <v>0.3111114863841342</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>68</v>
@@ -2146,19 +2146,19 @@
         <v>63658</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>50186</v>
+        <v>51347</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>76370</v>
+        <v>78285</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2385962034143464</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1881005749755259</v>
+        <v>0.1924531539727946</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2862430146964547</v>
+        <v>0.2934202991709252</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>4158</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1603</v>
+        <v>859</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10532</v>
+        <v>10762</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02389700027758194</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009211731888534838</v>
+        <v>0.004934660544237752</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06053593578344444</v>
+        <v>0.06185799198480205</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2196,19 +2196,19 @@
         <v>5606</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12856</v>
+        <v>11702</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06039557552894163</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02202730919766178</v>
+        <v>0.02200318063279947</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1385077703291714</v>
+        <v>0.1260751252373072</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2217,19 +2217,19 @@
         <v>9763</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4646</v>
+        <v>4604</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19022</v>
+        <v>18097</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03659424535975116</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01741227257779676</v>
+        <v>0.01725650725771326</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07129689653965909</v>
+        <v>0.0678286604265976</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>11098</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6081</v>
+        <v>5946</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18452</v>
+        <v>18279</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06378937885426754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03495206418799701</v>
+        <v>0.03417713237350121</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1060573541796831</v>
+        <v>0.1050597796411246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2267,19 +2267,19 @@
         <v>5292</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1980</v>
+        <v>2040</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10902</v>
+        <v>11230</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05702000710222356</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02133386802422485</v>
+        <v>0.02198154507947624</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.117463217531933</v>
+        <v>0.1209952270918436</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -2288,19 +2288,19 @@
         <v>16391</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9769</v>
+        <v>10078</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25883</v>
+        <v>25319</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06143442741859982</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03661625338432561</v>
+        <v>0.03777367333665931</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09701038944846715</v>
+        <v>0.09489830436144624</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>5958</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2551</v>
+        <v>2521</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11313</v>
+        <v>11529</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03424419846084124</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01465997925615219</v>
+        <v>0.0144909417728172</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06502183278094774</v>
+        <v>0.06626460835452017</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2338,19 +2338,19 @@
         <v>5073</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1939</v>
+        <v>1918</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10977</v>
+        <v>11103</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05465178295671305</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0208879361201182</v>
+        <v>0.02066849046876245</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1182703438390817</v>
+        <v>0.1196213378620921</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2359,19 +2359,19 @@
         <v>11031</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6237</v>
+        <v>5967</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19807</v>
+        <v>18808</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04134365645597238</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02337752036458882</v>
+        <v>0.02236549918025757</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07423902365097693</v>
+        <v>0.07049279749021388</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>92583</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>79293</v>
+        <v>80033</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>105765</v>
+        <v>105989</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5321300284462817</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4557433190099366</v>
+        <v>0.4599951144610319</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6078949598676541</v>
+        <v>0.609182507383435</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>53</v>
@@ -2409,19 +2409,19 @@
         <v>55569</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>45853</v>
+        <v>45952</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>65846</v>
+        <v>64240</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5987030603489936</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4940216053210061</v>
+        <v>0.4950908492971821</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.709423707234815</v>
+        <v>0.6921174311337251</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>146</v>
@@ -2430,19 +2430,19 @@
         <v>148152</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>132542</v>
+        <v>131320</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>162703</v>
+        <v>163649</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5552896749834521</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4967792920529172</v>
+        <v>0.4921992705642047</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6098255297842887</v>
+        <v>0.6133726609800054</v>
       </c>
     </row>
     <row r="28">
@@ -2463,19 +2463,19 @@
         <v>169499</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>148579</v>
+        <v>148843</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>191363</v>
+        <v>193057</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2713851831828314</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2378911544092303</v>
+        <v>0.2383141626000216</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3063928020560311</v>
+        <v>0.3091056365479292</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -2484,19 +2484,19 @@
         <v>21051</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08395866295417657</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>196</v>
@@ -2505,19 +2505,19 @@
         <v>190550</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>166565</v>
+        <v>165782</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>214749</v>
+        <v>215837</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2176959287262716</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1902942164948042</v>
+        <v>0.1893999692709256</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2453429966235182</v>
+        <v>0.2465853388569809</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>117800</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>100231</v>
+        <v>97800</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>137732</v>
+        <v>136046</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1886103771109658</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.160481310139349</v>
+        <v>0.1565875036098018</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2205235608698266</v>
+        <v>0.2178246520846337</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -2555,19 +2555,19 @@
         <v>36399</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1451686946557249</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>156</v>
@@ -2576,19 +2576,19 @@
         <v>154199</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>133375</v>
+        <v>134189</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>180645</v>
+        <v>176456</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.176166292140946</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1523758334189459</v>
+        <v>0.1533054900659898</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2063795779975149</v>
+        <v>0.2015938963015177</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>14314</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7665</v>
+        <v>8640</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22910</v>
+        <v>23885</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02291801414162394</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01227294191809591</v>
+        <v>0.01383412156540324</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0366819330260969</v>
+        <v>0.03824169442862028</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>26</v>
@@ -2626,19 +2626,19 @@
         <v>27487</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1096237948179564</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -2647,19 +2647,19 @@
         <v>41800</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30578</v>
+        <v>30775</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57125</v>
+        <v>55531</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04775531419877228</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03493428982251258</v>
+        <v>0.03515896717528328</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06526313921903636</v>
+        <v>0.06344152492237816</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>47577</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>35696</v>
+        <v>36194</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>61124</v>
+        <v>63090</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07617606090451684</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05715365578875142</v>
+        <v>0.05794984660646149</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09786552581809721</v>
+        <v>0.1010134983900537</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -2697,19 +2697,19 @@
         <v>20568</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08202930017612507</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>67</v>
@@ -2718,19 +2718,19 @@
         <v>68145</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53216</v>
+        <v>53378</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>84848</v>
+        <v>84834</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07785275026664724</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06079764237681053</v>
+        <v>0.06098240817162693</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09693515835949419</v>
+        <v>0.09692007762438039</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>19983</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12690</v>
+        <v>12284</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29489</v>
+        <v>29530</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03199439751305172</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02031758320505778</v>
+        <v>0.01966821497227282</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04721505152970952</v>
+        <v>0.04728025304612966</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2768,19 +2768,19 @@
         <v>12643</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0504253938110286</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -2789,19 +2789,19 @@
         <v>32626</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>23253</v>
+        <v>23491</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>45204</v>
+        <v>45053</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03727404763365779</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02656607538460742</v>
+        <v>0.02683798294386944</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0516434544043517</v>
+        <v>0.05147121480998889</v>
       </c>
     </row>
     <row r="33">
@@ -2818,19 +2818,19 @@
         <v>358950</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>334090</v>
+        <v>334623</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>382443</v>
+        <v>385015</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5747164627178492</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5349144469809471</v>
+        <v>0.5357665101311883</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6123322106212458</v>
+        <v>0.6164507688180445</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>161</v>
@@ -2839,19 +2839,19 @@
         <v>165844</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6614316010896456</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>509</v>
@@ -2860,19 +2860,19 @@
         <v>524794</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>496831</v>
+        <v>495846</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>554047</v>
+        <v>552525</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5995564433331826</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5676105368318644</v>
+        <v>0.5664853890876614</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.632976930546761</v>
+        <v>0.6312384192065079</v>
       </c>
     </row>
     <row r="34">
@@ -3133,19 +3133,19 @@
         <v>23739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16131</v>
+        <v>15202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34949</v>
+        <v>33187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1258360828916875</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08550546624993073</v>
+        <v>0.08058187851800701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1852564798865028</v>
+        <v>0.175916496591708</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3154,19 +3154,19 @@
         <v>3983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1027</v>
+        <v>1004</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9482</v>
+        <v>8887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05525070320015082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01424510219650923</v>
+        <v>0.01392617437186025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1315312599302241</v>
+        <v>0.1232766233095485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -3175,19 +3175,19 @@
         <v>27722</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19063</v>
+        <v>18645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38613</v>
+        <v>38424</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1063213067301209</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07310967277686826</v>
+        <v>0.07150821464410745</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1480884911232543</v>
+        <v>0.1473640104506213</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>13615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7501</v>
+        <v>8117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21913</v>
+        <v>22596</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07216975361131496</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03975896395016942</v>
+        <v>0.04302551919959533</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1161541376132113</v>
+        <v>0.1197735286568389</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7815</v>
+        <v>6953</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03231129896771858</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1084132684357682</v>
+        <v>0.09644863812483177</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -3246,19 +3246,19 @@
         <v>15944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9506</v>
+        <v>9634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25757</v>
+        <v>25568</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06115006619283102</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03645572240396421</v>
+        <v>0.03694750421072942</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09878274538262397</v>
+        <v>0.09806008187477974</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>3053</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9004</v>
+        <v>8331</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01618230910875464</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005049308578655594</v>
+        <v>0.004997086524692354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04772744297161964</v>
+        <v>0.04415922681272297</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3296,19 +3296,19 @@
         <v>2980</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7871</v>
+        <v>8072</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04133450453544166</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01303389726955891</v>
+        <v>0.01301403977745629</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1091833769518419</v>
+        <v>0.1119825488492367</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -3317,19 +3317,19 @@
         <v>6033</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2880</v>
+        <v>2083</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13065</v>
+        <v>12490</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02313614949140585</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01104525850349192</v>
+        <v>0.007990577219875472</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05010846954049392</v>
+        <v>0.04790159810980076</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>17266</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10168</v>
+        <v>10117</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26587</v>
+        <v>26478</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09152454283544377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05389780239911618</v>
+        <v>0.05362869078151706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.140930744192891</v>
+        <v>0.1403515834805089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3367,19 +3367,19 @@
         <v>4954</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1841</v>
+        <v>1277</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12431</v>
+        <v>11574</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06872262434257002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02553793895794336</v>
+        <v>0.0177188463748288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1724424152978332</v>
+        <v>0.1605619965617489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -3388,19 +3388,19 @@
         <v>22220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13920</v>
+        <v>14407</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33347</v>
+        <v>33222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08522048472330655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05338637447554673</v>
+        <v>0.05525407724452284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1278917368734401</v>
+        <v>0.1274145604362628</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>13310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7521</v>
+        <v>7335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21784</v>
+        <v>21683</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07055323336772207</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03986893611688642</v>
+        <v>0.03888187927434037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1154715093159795</v>
+        <v>0.1149338054158248</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3451,19 +3451,19 @@
         <v>13310</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7619</v>
+        <v>6971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22395</v>
+        <v>21942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05104734471680427</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0292197585336109</v>
+        <v>0.02673676472753985</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08588860980872308</v>
+        <v>0.08415081728216105</v>
       </c>
     </row>
     <row r="9">
@@ -3480,19 +3480,19 @@
         <v>143262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>131105</v>
+        <v>130685</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>155334</v>
+        <v>153955</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7593889577478709</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6949483234248462</v>
+        <v>0.6927211674477913</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8233787686971517</v>
+        <v>0.8160729983274446</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -3501,19 +3501,19 @@
         <v>64808</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>58094</v>
+        <v>59222</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69034</v>
+        <v>69043</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8990308194121268</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.805882188627506</v>
+        <v>0.8215393875013032</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9576417760477202</v>
+        <v>0.957774717424316</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>197</v>
@@ -3522,19 +3522,19 @@
         <v>208070</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>193790</v>
+        <v>193661</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>219175</v>
+        <v>219489</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7979958149337527</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.743229245818028</v>
+        <v>0.7427343071281935</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8405835765497705</v>
+        <v>0.8417887369620261</v>
       </c>
     </row>
     <row r="10">
@@ -3555,19 +3555,19 @@
         <v>48331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36366</v>
+        <v>35275</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62734</v>
+        <v>62982</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1943367428841335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1462268885946068</v>
+        <v>0.1418386956989902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2522516068406131</v>
+        <v>0.2532469782075176</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3576,19 +3576,19 @@
         <v>11582</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6350</v>
+        <v>6299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18917</v>
+        <v>18985</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1177961698815616</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0645834549456048</v>
+        <v>0.06406923259562326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1923959167277965</v>
+        <v>0.1930906898858456</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3597,19 +3597,19 @@
         <v>59912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44693</v>
+        <v>45364</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75655</v>
+        <v>76218</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1726503823105953</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1287921763248481</v>
+        <v>0.1307255000663644</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2180151699665171</v>
+        <v>0.2196376854160819</v>
       </c>
     </row>
     <row r="11">
@@ -3626,19 +3626,19 @@
         <v>31904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21677</v>
+        <v>22234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43752</v>
+        <v>43678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1282852283627052</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08716371362471192</v>
+        <v>0.08940278469092175</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1759275605867048</v>
+        <v>0.1756297522539838</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -3647,19 +3647,19 @@
         <v>9626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4192</v>
+        <v>4396</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18308</v>
+        <v>17398</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09790436045927466</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04263440952837204</v>
+        <v>0.04470675817369647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1862109488819727</v>
+        <v>0.1769522088976454</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -3668,19 +3668,19 @@
         <v>41530</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29173</v>
+        <v>30030</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55326</v>
+        <v>54707</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1196773694188129</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08406950523343749</v>
+        <v>0.08653655647509534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1594345274667345</v>
+        <v>0.1576501429740541</v>
       </c>
     </row>
     <row r="12">
@@ -3697,19 +3697,19 @@
         <v>3187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8507</v>
+        <v>8573</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01281459555210973</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0</v>
+        <v>0.0041384913604099</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03420569750181934</v>
+        <v>0.03447282335945804</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3718,19 +3718,19 @@
         <v>8095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3240</v>
+        <v>3897</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15607</v>
+        <v>15554</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08232936965240235</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03295130576493298</v>
+        <v>0.03963349329773691</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.158735852637527</v>
+        <v>0.1581967280041529</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -3739,19 +3739,19 @@
         <v>11282</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5518</v>
+        <v>5786</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19720</v>
+        <v>20134</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03251032550537706</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01589992040685575</v>
+        <v>0.01667303622145924</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05682758206406061</v>
+        <v>0.058019854769687</v>
       </c>
     </row>
     <row r="13">
@@ -3768,19 +3768,19 @@
         <v>21730</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12985</v>
+        <v>12449</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33553</v>
+        <v>33408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08737530630576439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05221355143710101</v>
+        <v>0.05005846677998495</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.134916818551854</v>
+        <v>0.134332997059132</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3789,19 +3789,19 @@
         <v>3250</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8562</v>
+        <v>9316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03305643631016352</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01059968661635982</v>
+        <v>0.01046527863625246</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08708604914887734</v>
+        <v>0.09474914009448858</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -3810,19 +3810,19 @@
         <v>24980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15481</v>
+        <v>15629</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37841</v>
+        <v>36798</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07198505569146386</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04461097002426098</v>
+        <v>0.04503711066937792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1090458025442026</v>
+        <v>0.1060422361847783</v>
       </c>
     </row>
     <row r="14">
@@ -3839,19 +3839,19 @@
         <v>3318</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1027</v>
+        <v>1050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9446</v>
+        <v>9020</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01334197672063429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004129263346794745</v>
+        <v>0.004222307509201837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03798300225066482</v>
+        <v>0.03626719182759443</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -3860,19 +3860,19 @@
         <v>5583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2023</v>
+        <v>2090</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11582</v>
+        <v>12691</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05678515000441239</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02057252524254469</v>
+        <v>0.02125231951495578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1177953243882818</v>
+        <v>0.1290735865479331</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -3881,19 +3881,19 @@
         <v>8901</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4260</v>
+        <v>4306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17064</v>
+        <v>16748</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02565079913118844</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0122766005066101</v>
+        <v>0.01240991470366327</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04917230641932534</v>
+        <v>0.04826385010301228</v>
       </c>
     </row>
     <row r="15">
@@ -3910,19 +3910,19 @@
         <v>165678</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>149252</v>
+        <v>150637</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>180713</v>
+        <v>180237</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6661866322351083</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6001398048664374</v>
+        <v>0.6057068285652146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7266414051326576</v>
+        <v>0.7247271001422805</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>63</v>
@@ -3931,19 +3931,19 @@
         <v>68510</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>58461</v>
+        <v>58624</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>76331</v>
+        <v>76892</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6967988127766118</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.594588502794584</v>
+        <v>0.5962560073657163</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7763408803369084</v>
+        <v>0.7820523765147547</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>217</v>
@@ -3952,19 +3952,19 @@
         <v>234187</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>216378</v>
+        <v>217112</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>252494</v>
+        <v>252429</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6748600293514715</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6235384574007599</v>
+        <v>0.62565528783713</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7276157011377408</v>
+        <v>0.7274279015162556</v>
       </c>
     </row>
     <row r="16">
@@ -3985,19 +3985,19 @@
         <v>47028</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34958</v>
+        <v>34658</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60170</v>
+        <v>60616</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2728558868204253</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2028282047026223</v>
+        <v>0.2010859482971299</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3491064395188382</v>
+        <v>0.3516964989549632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4006,19 +4006,19 @@
         <v>7903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3045</v>
+        <v>3860</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15489</v>
+        <v>15141</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07659816705923343</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02951013931696728</v>
+        <v>0.03741591474512696</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1501327497389929</v>
+        <v>0.1467592702889748</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -4027,19 +4027,19 @@
         <v>54931</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42274</v>
+        <v>41413</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69922</v>
+        <v>70618</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1993669293549014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1534290339748337</v>
+        <v>0.1503044739932004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2537778728972035</v>
+        <v>0.2563039737762299</v>
       </c>
     </row>
     <row r="17">
@@ -4056,19 +4056,19 @@
         <v>18886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11589</v>
+        <v>11128</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30847</v>
+        <v>29709</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.109574528169004</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06724213858986117</v>
+        <v>0.0645632885239469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1789723297952304</v>
+        <v>0.1723696016390495</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -4077,19 +4077,19 @@
         <v>4792</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1833</v>
+        <v>1024</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11545</v>
+        <v>10810</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04644551158634164</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01776223994512192</v>
+        <v>0.009920531039559949</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1119019534588575</v>
+        <v>0.1047746436837899</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -4098,19 +4098,19 @@
         <v>23677</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15967</v>
+        <v>15250</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36470</v>
+        <v>35587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08593578611020114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05795153967744439</v>
+        <v>0.05535022500428779</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1323660416733562</v>
+        <v>0.1291593112370263</v>
       </c>
     </row>
     <row r="18">
@@ -4127,19 +4127,19 @@
         <v>2877</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7879</v>
+        <v>7685</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0166917090244806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005385002983129443</v>
+        <v>0.005359689833690517</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04571450678117275</v>
+        <v>0.04458586146508167</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -4148,19 +4148,19 @@
         <v>5036</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1950</v>
+        <v>1956</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10603</v>
+        <v>10654</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04881694081454092</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01890112144064719</v>
+        <v>0.0189634526111985</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1027754547260586</v>
+        <v>0.1032645748893327</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -4169,19 +4169,19 @@
         <v>7913</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3039</v>
+        <v>3949</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15101</v>
+        <v>14877</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02872104369453863</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01103113141419266</v>
+        <v>0.01433096306459245</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05480769639386283</v>
+        <v>0.05399330006975538</v>
       </c>
     </row>
     <row r="19">
@@ -4198,19 +4198,19 @@
         <v>8564</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4015</v>
+        <v>3981</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15769</v>
+        <v>17279</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04969004751722112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02329394028371608</v>
+        <v>0.02309769069618714</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09149208108676464</v>
+        <v>0.1002556028130985</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -4219,19 +4219,19 @@
         <v>9084</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4393</v>
+        <v>4186</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17694</v>
+        <v>17390</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08804328871416538</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04257509118428014</v>
+        <v>0.0405701776377454</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.171500906823048</v>
+        <v>0.168552493883788</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -4240,19 +4240,19 @@
         <v>17648</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11172</v>
+        <v>9991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28141</v>
+        <v>27885</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0640514683796302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04054933310881736</v>
+        <v>0.03626002980067277</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1021353350422473</v>
+        <v>0.1012060447582961</v>
       </c>
     </row>
     <row r="20">
@@ -4269,19 +4269,19 @@
         <v>5127</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1961</v>
+        <v>1994</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11426</v>
+        <v>11017</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02974806395400114</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01137889105752786</v>
+        <v>0.01157079510349318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06629242261226347</v>
+        <v>0.063921820896154</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4293,16 +4293,16 @@
         <v>958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8634</v>
+        <v>8126</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0298639451978404</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009286389617658861</v>
+        <v>0.009281071182282609</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08368467940630099</v>
+        <v>0.07876069621454827</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -4311,19 +4311,19 @@
         <v>8208</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3195</v>
+        <v>4069</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15264</v>
+        <v>15321</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02979145583590987</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01159621357422203</v>
+        <v>0.01476920416856372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05539789280353098</v>
+        <v>0.05560757119254332</v>
       </c>
     </row>
     <row r="21">
@@ -4340,19 +4340,19 @@
         <v>108633</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>95024</v>
+        <v>94794</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>122652</v>
+        <v>121936</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6302891136065163</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5513329048340714</v>
+        <v>0.5499946721936981</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7116311176705327</v>
+        <v>0.7074753643898055</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>71</v>
@@ -4361,19 +4361,19 @@
         <v>81414</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>71679</v>
+        <v>71252</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88416</v>
+        <v>88851</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7891132345432318</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6947565032461613</v>
+        <v>0.6906241906979461</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8569804419238455</v>
+        <v>0.8612027185568238</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>168</v>
@@ -4382,19 +4382,19 @@
         <v>190046</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>172898</v>
+        <v>172690</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>205514</v>
+        <v>205982</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6897610114876284</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.627520675498663</v>
+        <v>0.6267655747442604</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.745899080997898</v>
+        <v>0.747596600555037</v>
       </c>
     </row>
     <row r="22">
@@ -4415,19 +4415,19 @@
         <v>41678</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30141</v>
+        <v>31222</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53679</v>
+        <v>53306</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2019557416284022</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1460538541152122</v>
+        <v>0.1512919155586429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2601123423898115</v>
+        <v>0.2583053906579648</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4436,19 +4436,19 @@
         <v>11007</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5945</v>
+        <v>5364</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18494</v>
+        <v>18775</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0974174397349931</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05261744557664654</v>
+        <v>0.04747884523201838</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1636823826117097</v>
+        <v>0.1661727672638121</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -4457,19 +4457,19 @@
         <v>52684</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39370</v>
+        <v>40462</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68305</v>
+        <v>68048</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1649709859593204</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1232796606297592</v>
+        <v>0.1266989136392033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2138841900611894</v>
+        <v>0.2130793713199646</v>
       </c>
     </row>
     <row r="23">
@@ -4486,19 +4486,19 @@
         <v>21870</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13815</v>
+        <v>13791</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32264</v>
+        <v>31996</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.105975644693724</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06694219710746366</v>
+        <v>0.06682896874312064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1563385066440849</v>
+        <v>0.1550410659643683</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -4507,19 +4507,19 @@
         <v>17373</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10734</v>
+        <v>10098</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26630</v>
+        <v>26171</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1537626730511258</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09500069057931064</v>
+        <v>0.08937494755951923</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2356942580869733</v>
+        <v>0.2316320201033892</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>37</v>
@@ -4528,19 +4528,19 @@
         <v>39243</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>28531</v>
+        <v>28366</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>52076</v>
+        <v>52043</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1228822859528491</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08934057896323691</v>
+        <v>0.08882168750047764</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1630673690448725</v>
+        <v>0.1629631847380445</v>
       </c>
     </row>
     <row r="24">
@@ -4557,19 +4557,19 @@
         <v>8028</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3725</v>
+        <v>3677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17484</v>
+        <v>18841</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0388997426474282</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01805003976482384</v>
+        <v>0.01781770104915689</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08471982780606482</v>
+        <v>0.09129518705679687</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4578,19 +4578,19 @@
         <v>3033</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8225</v>
+        <v>8158</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02684009941781906</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008226521722691336</v>
+        <v>0.00837390884804581</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07279645617363545</v>
+        <v>0.07220022896980265</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -4599,19 +4599,19 @@
         <v>11060</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5047</v>
+        <v>5772</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19974</v>
+        <v>20591</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03463314418327704</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0158039819299281</v>
+        <v>0.01807251707163326</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06254470336010137</v>
+        <v>0.06447637402250228</v>
       </c>
     </row>
     <row r="25">
@@ -4628,19 +4628,19 @@
         <v>15689</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9421</v>
+        <v>9495</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24871</v>
+        <v>25001</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.076023110736802</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04565214922018247</v>
+        <v>0.04600958359923014</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1205142880408365</v>
+        <v>0.1211480653224297</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -4649,19 +4649,19 @@
         <v>14074</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7816</v>
+        <v>8189</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22839</v>
+        <v>23637</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1245677960452598</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0691735643289848</v>
+        <v>0.07247927133121813</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2021458186502992</v>
+        <v>0.2092087292069538</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -4670,19 +4670,19 @@
         <v>29763</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20213</v>
+        <v>20604</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41513</v>
+        <v>42202</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09319780453464502</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06329227632364673</v>
+        <v>0.0645170428935454</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1299916040850467</v>
+        <v>0.1321473405004819</v>
       </c>
     </row>
     <row r="26">
@@ -4699,19 +4699,19 @@
         <v>8661</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3855</v>
+        <v>4111</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18278</v>
+        <v>17532</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0419667377664995</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01868165899452836</v>
+        <v>0.01992151302693666</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08856778450726963</v>
+        <v>0.08495450568502851</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -4720,19 +4720,19 @@
         <v>3723</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11166</v>
+        <v>10826</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03295009012710719</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00845971648163881</v>
+        <v>0.008382098966058536</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09882674556523879</v>
+        <v>0.09582146221380303</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -4741,19 +4741,19 @@
         <v>12384</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6556</v>
+        <v>6736</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21393</v>
+        <v>22637</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03877672507395401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02052902291525106</v>
+        <v>0.02109363146248712</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06698940169406638</v>
+        <v>0.07088396749455148</v>
       </c>
     </row>
     <row r="27">
@@ -4770,19 +4770,19 @@
         <v>132001</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>118424</v>
+        <v>117742</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>145146</v>
+        <v>144606</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6396309170615614</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.573841392592181</v>
+        <v>0.5705371367508477</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7033307025140951</v>
+        <v>0.700711686462625</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>78</v>
@@ -4791,19 +4791,19 @@
         <v>84924</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>74694</v>
+        <v>75036</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>93723</v>
+        <v>93980</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7516404596172496</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6610946913610872</v>
+        <v>0.6641270445092946</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8295181408725874</v>
+        <v>0.8317911522534007</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>203</v>
@@ -4812,19 +4812,19 @@
         <v>216924</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>200179</v>
+        <v>197329</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>233093</v>
+        <v>232732</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6792589336736136</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6268263349665449</v>
+        <v>0.6178999518406865</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7298883055169191</v>
+        <v>0.7287593097261083</v>
       </c>
     </row>
     <row r="28">
@@ -4845,19 +4845,19 @@
         <v>160776</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1970111989947081</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -4866,19 +4866,19 @@
         <v>34474</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>24880</v>
+        <v>23539</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>48211</v>
+        <v>46894</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08918084158552782</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06436110133810984</v>
+        <v>0.06089297614524579</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1247166640613382</v>
+        <v>0.1213098942398595</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>180</v>
@@ -4887,19 +4887,19 @@
         <v>195250</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>170918</v>
+        <v>169057</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>223632</v>
+        <v>224125</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1623512944032847</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1421190670827721</v>
+        <v>0.1405724320074752</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1859513318472903</v>
+        <v>0.1863612369592128</v>
       </c>
     </row>
     <row r="29">
@@ -4916,19 +4916,19 @@
         <v>86275</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1057195120927983</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -4937,19 +4937,19 @@
         <v>34120</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23134</v>
+        <v>24193</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47098</v>
+        <v>49865</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08826475840837188</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05984457403281686</v>
+        <v>0.06258487839055131</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1218369232373616</v>
+        <v>0.1289960918323708</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>109</v>
@@ -4958,19 +4958,19 @@
         <v>120395</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>101070</v>
+        <v>98671</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>142384</v>
+        <v>143456</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.100109031779974</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08404057428747684</v>
+        <v>0.08204524375136643</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1183928959825496</v>
+        <v>0.1192849178001658</v>
       </c>
     </row>
     <row r="30">
@@ -4987,19 +4987,19 @@
         <v>17144</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02100840686648</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -5008,19 +5008,19 @@
         <v>19143</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11485</v>
+        <v>11371</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29282</v>
+        <v>29007</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04952194014234908</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02971085658554116</v>
+        <v>0.02941456597556651</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07575033240690114</v>
+        <v>0.07503793283111447</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -5029,19 +5029,19 @@
         <v>36288</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>24986</v>
+        <v>25654</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>49204</v>
+        <v>50950</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03017350996593298</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02077588089349098</v>
+        <v>0.02133134986575567</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04091321152265709</v>
+        <v>0.04236494353213351</v>
       </c>
     </row>
     <row r="31">
@@ -5058,19 +5058,19 @@
         <v>63249</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07750462479265627</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -5079,19 +5079,19 @@
         <v>31362</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21894</v>
+        <v>20972</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45497</v>
+        <v>43978</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08113006587733479</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05663635235023463</v>
+        <v>0.0542529977100069</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1176956717851078</v>
+        <v>0.1137672476144442</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>86</v>
@@ -5100,19 +5100,19 @@
         <v>94611</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>77316</v>
+        <v>76211</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>118388</v>
+        <v>116974</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0786699500787439</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06428894628481133</v>
+        <v>0.06337019256574011</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09844012968822373</v>
+        <v>0.09726468729139473</v>
       </c>
     </row>
     <row r="32">
@@ -5129,19 +5129,19 @@
         <v>30416</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03727126385474394</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -5150,19 +5150,19 @@
         <v>12387</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6049</v>
+        <v>6407</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>21132</v>
+        <v>22450</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03204416502593364</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01564914951025814</v>
+        <v>0.01657551846487611</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05466674580952159</v>
+        <v>0.0580768784410002</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -5171,19 +5171,19 @@
         <v>42803</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>31916</v>
+        <v>31774</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>58407</v>
+        <v>57208</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03559111782676572</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02653817855252924</v>
+        <v>0.02642032266392394</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0485656747872707</v>
+        <v>0.04756860992195402</v>
       </c>
     </row>
     <row r="33">
@@ -5200,19 +5200,19 @@
         <v>549572</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6734354511933404</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>273</v>
@@ -5221,19 +5221,19 @@
         <v>299655</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>281234</v>
+        <v>281836</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>314619</v>
+        <v>317475</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7751785687476537</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7275233807978522</v>
+        <v>0.7290823096183738</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8138878409392467</v>
+        <v>0.8212771711365582</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>785</v>
@@ -5242,19 +5242,19 @@
         <v>849228</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>813008</v>
+        <v>815196</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>880244</v>
+        <v>878355</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.7061387346841382</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6760217306435646</v>
+        <v>0.6778407519312715</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7319285241105475</v>
+        <v>0.7303578141698491</v>
       </c>
     </row>
     <row r="34">
@@ -5515,19 +5515,19 @@
         <v>17755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11336</v>
+        <v>10767</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26372</v>
+        <v>26036</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1502057992617928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09589803144143674</v>
+        <v>0.09108276106934739</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2231047986121327</v>
+        <v>0.2202605725045861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5536,19 +5536,19 @@
         <v>3076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>959</v>
+        <v>980</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8018</v>
+        <v>8327</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05717517851885243</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01782033336789651</v>
+        <v>0.01821057443428556</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1490101557344034</v>
+        <v>0.1547632181290399</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -5557,19 +5557,19 @@
         <v>20832</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13731</v>
+        <v>13530</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30744</v>
+        <v>30047</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1211054362201876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07982729299099656</v>
+        <v>0.07865593355979074</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.178730683079482</v>
+        <v>0.1746772058832024</v>
       </c>
     </row>
     <row r="5">
@@ -5586,19 +5586,19 @@
         <v>17056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10696</v>
+        <v>11119</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26501</v>
+        <v>27150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.144287498765931</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09048548929182895</v>
+        <v>0.09406294353254951</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2241898551251369</v>
+        <v>0.2296879000247369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -5607,19 +5607,19 @@
         <v>8116</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3827</v>
+        <v>4369</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14361</v>
+        <v>14537</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1508424977944396</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07113418713658672</v>
+        <v>0.0812068022466174</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2669072971218034</v>
+        <v>0.2701691326348098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -5628,19 +5628,19 @@
         <v>25172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16298</v>
+        <v>16467</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35213</v>
+        <v>35268</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1463379295804695</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09475067972446317</v>
+        <v>0.09573290247383612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2047122861122661</v>
+        <v>0.2050297846604178</v>
       </c>
     </row>
     <row r="6">
@@ -5657,19 +5657,19 @@
         <v>7182</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3220</v>
+        <v>3007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13768</v>
+        <v>13734</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06075800435396567</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02724096425922562</v>
+        <v>0.02544167986436893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.116477371397705</v>
+        <v>0.1161868706207379</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -5678,19 +5678,19 @@
         <v>5197</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1816</v>
+        <v>1528</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10859</v>
+        <v>10564</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09657996297490956</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03375753382929497</v>
+        <v>0.02840367221586261</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2018221980091324</v>
+        <v>0.1963282170619047</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -5699,19 +5699,19 @@
         <v>12379</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6578</v>
+        <v>6406</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20425</v>
+        <v>20917</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0719632612081712</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03823845013503406</v>
+        <v>0.03723918158900238</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1187387701840373</v>
+        <v>0.1216026344013735</v>
       </c>
     </row>
     <row r="7">
@@ -5728,19 +5728,19 @@
         <v>5727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2034</v>
+        <v>2104</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12514</v>
+        <v>13169</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04845052641329917</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01721051735688656</v>
+        <v>0.01779571492792361</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1058657036932055</v>
+        <v>0.1114100379311671</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -5749,19 +5749,19 @@
         <v>2812</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7440</v>
+        <v>7146</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05225980705796465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0159923184985702</v>
+        <v>0.01608261794675644</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1382739934353638</v>
+        <v>0.1328075995526602</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -5770,19 +5770,19 @@
         <v>8539</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3852</v>
+        <v>4067</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16217</v>
+        <v>16681</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04964208515817121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02239395750450763</v>
+        <v>0.02364642288948769</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09427618660481486</v>
+        <v>0.09697480514701</v>
       </c>
     </row>
     <row r="8">
@@ -5799,19 +5799,19 @@
         <v>8905</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4160</v>
+        <v>4095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16715</v>
+        <v>16529</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07533086789638704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03519090517765797</v>
+        <v>0.03464406190187891</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1414042141151214</v>
+        <v>0.1398292250861592</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4758</v>
+        <v>5587</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01810501955192232</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08843306032898002</v>
+        <v>0.1038303196433058</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -5841,19 +5841,19 @@
         <v>9879</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4896</v>
+        <v>4664</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18845</v>
+        <v>17794</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05743038578749884</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02846563726200736</v>
+        <v>0.02711520304197512</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1095561272833915</v>
+        <v>0.1034461227410249</v>
       </c>
     </row>
     <row r="9">
@@ -5870,19 +5870,19 @@
         <v>76017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>64830</v>
+        <v>65024</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>85978</v>
+        <v>86292</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.643087864785982</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5484454380389761</v>
+        <v>0.550087142656302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7273603749788472</v>
+        <v>0.7300095401029798</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -5891,19 +5891,19 @@
         <v>35477</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28548</v>
+        <v>28014</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41909</v>
+        <v>41365</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6593469063715118</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5305763832996536</v>
+        <v>0.5206553355454882</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7788817403318624</v>
+        <v>0.7687795805481286</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>108</v>
@@ -5912,19 +5912,19 @@
         <v>111494</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>98504</v>
+        <v>98049</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>124292</v>
+        <v>124354</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6481737602585582</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5726560608049515</v>
+        <v>0.5700110920157161</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7225723455555919</v>
+        <v>0.7229312596753387</v>
       </c>
     </row>
     <row r="10">
@@ -5945,19 +5945,19 @@
         <v>29164</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19672</v>
+        <v>20005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40758</v>
+        <v>39916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1645247244075525</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1109795568797627</v>
+        <v>0.1128584749055038</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.229934374366114</v>
+        <v>0.2251843221897048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -5966,19 +5966,19 @@
         <v>3873</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>919</v>
+        <v>1091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9615</v>
+        <v>8964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04486690381458856</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01064339412087367</v>
+        <v>0.0126363743416567</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1113740555638466</v>
+        <v>0.1038277807792306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -5987,19 +5987,19 @@
         <v>33037</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23364</v>
+        <v>22966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45187</v>
+        <v>44042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.125334441091125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08863777619953367</v>
+        <v>0.08712704664035607</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1714262548260595</v>
+        <v>0.1670819598374126</v>
       </c>
     </row>
     <row r="11">
@@ -6016,19 +6016,19 @@
         <v>24889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16326</v>
+        <v>16188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35519</v>
+        <v>34145</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1404063426956918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09209937585993538</v>
+        <v>0.09132232671880421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2003745760075787</v>
+        <v>0.1926269828580433</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -6037,19 +6037,19 @@
         <v>14866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9010</v>
+        <v>8911</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23475</v>
+        <v>23940</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1721971251232322</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1043639677628222</v>
+        <v>0.1032230573780326</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2719209529333961</v>
+        <v>0.2772993151153055</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>39</v>
@@ -6058,19 +6058,19 @@
         <v>39755</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29198</v>
+        <v>29591</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51702</v>
+        <v>53344</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1508184475126792</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1107675255375054</v>
+        <v>0.1122583539885293</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1961428429555877</v>
+        <v>0.2023732769564871</v>
       </c>
     </row>
     <row r="12">
@@ -6087,19 +6087,19 @@
         <v>17406</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10322</v>
+        <v>10539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26576</v>
+        <v>25743</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09819196757309165</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05822772699036037</v>
+        <v>0.05945590172591708</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1499281530027208</v>
+        <v>0.1452288023931761</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -6108,19 +6108,19 @@
         <v>7315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3521</v>
+        <v>3554</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13382</v>
+        <v>13326</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0847271657732591</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04078045166319526</v>
+        <v>0.04117175684736355</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1550007018592016</v>
+        <v>0.1543562848814087</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -6129,19 +6129,19 @@
         <v>24720</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16470</v>
+        <v>15944</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35436</v>
+        <v>35053</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09378198087335052</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06248148414211834</v>
+        <v>0.06048578559260471</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1344361754086407</v>
+        <v>0.1329824738130029</v>
       </c>
     </row>
     <row r="13">
@@ -6158,19 +6158,19 @@
         <v>29901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20138</v>
+        <v>20936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41334</v>
+        <v>42768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1686825402877461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.113608469886792</v>
+        <v>0.1181105887799307</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.233179420806338</v>
+        <v>0.2412694748093897</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -6179,19 +6179,19 @@
         <v>10337</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5515</v>
+        <v>4820</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17246</v>
+        <v>17063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1197411912522335</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06388497663746093</v>
+        <v>0.05583344631868131</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1997607274305802</v>
+        <v>0.1976452685822172</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -6200,19 +6200,19 @@
         <v>40238</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29174</v>
+        <v>28885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54431</v>
+        <v>53447</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1526532885005655</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1106790588717408</v>
+        <v>0.1095829117495591</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2064974508476752</v>
+        <v>0.2027636669266336</v>
       </c>
     </row>
     <row r="14">
@@ -6229,19 +6229,19 @@
         <v>5662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2006</v>
+        <v>2024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12980</v>
+        <v>12223</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03194368437698819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01131506611930436</v>
+        <v>0.01141707475640238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07322375334247437</v>
+        <v>0.06895495053626269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -6250,19 +6250,19 @@
         <v>3700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8630</v>
+        <v>8373</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0428616432518146</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01068225672337722</v>
+        <v>0.01064716031259966</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09996471588859356</v>
+        <v>0.09698316689000058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -6271,19 +6271,19 @@
         <v>9363</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4014</v>
+        <v>4741</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16644</v>
+        <v>17929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03551953006280466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01522627071501136</v>
+        <v>0.017985036878042</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06314345751455487</v>
+        <v>0.06801590956754121</v>
       </c>
     </row>
     <row r="15">
@@ -6300,19 +6300,19 @@
         <v>107474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>93410</v>
+        <v>94130</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>119919</v>
+        <v>120474</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6063048303382842</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5269649397675743</v>
+        <v>0.5310239923504078</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6765117315911696</v>
+        <v>0.6796391108522382</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>58</v>
@@ -6321,19 +6321,19 @@
         <v>61537</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51935</v>
+        <v>52205</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69151</v>
+        <v>68091</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7127895321742246</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6015694547123162</v>
+        <v>0.6046974891411784</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8009897639608311</v>
+        <v>0.7887112055265787</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>160</v>
@@ -6342,19 +6342,19 @@
         <v>169011</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>152315</v>
+        <v>153455</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>184133</v>
+        <v>184378</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6411806588728146</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5778416015406282</v>
+        <v>0.5821667192257979</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6985517261226177</v>
+        <v>0.6994796213949895</v>
       </c>
     </row>
     <row r="16">
@@ -6375,19 +6375,19 @@
         <v>41948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31059</v>
+        <v>31202</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53449</v>
+        <v>53649</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3141211706121419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2325818363653451</v>
+        <v>0.2336513447080726</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4002448478103307</v>
+        <v>0.4017435080370036</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -6396,19 +6396,19 @@
         <v>12504</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6881</v>
+        <v>6683</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20364</v>
+        <v>20306</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1676987080545021</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09228566452593347</v>
+        <v>0.08963679864342226</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2731151787673127</v>
+        <v>0.272335716079264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -6417,19 +6417,19 @@
         <v>54452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41192</v>
+        <v>42498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67458</v>
+        <v>69387</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2616586970201781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1979417575261336</v>
+        <v>0.2042176539463693</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.324158673646162</v>
+        <v>0.3334286008168895</v>
       </c>
     </row>
     <row r="17">
@@ -6446,19 +6446,19 @@
         <v>30981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22102</v>
+        <v>21974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42731</v>
+        <v>41527</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2320000606404212</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1655095198664821</v>
+        <v>0.1645527634881589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3199862576103423</v>
+        <v>0.3109684895656395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -6467,19 +6467,19 @@
         <v>4415</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9913</v>
+        <v>10577</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05920799203857248</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01491662277257774</v>
+        <v>0.01482211561989887</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1329537270609495</v>
+        <v>0.141856995666622</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -6488,19 +6488,19 @@
         <v>35396</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25164</v>
+        <v>25932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46914</v>
+        <v>49032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1700894823208086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1209200681471255</v>
+        <v>0.1246096203092842</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2254367559124738</v>
+        <v>0.235613302312247</v>
       </c>
     </row>
     <row r="18">
@@ -6517,19 +6517,19 @@
         <v>8576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4173</v>
+        <v>4049</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15942</v>
+        <v>15334</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06421748866507221</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03125122323476786</v>
+        <v>0.03032381856651531</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1193790601962876</v>
+        <v>0.1148303837124551</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -6538,19 +6538,19 @@
         <v>12429</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6961</v>
+        <v>7200</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19192</v>
+        <v>19895</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1666906991541148</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09335759609120213</v>
+        <v>0.09656293319830431</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2573931617274702</v>
+        <v>0.2668200920541113</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -6559,19 +6559,19 @@
         <v>21004</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13580</v>
+        <v>13384</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31385</v>
+        <v>31358</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1009331537704099</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0652570233100852</v>
+        <v>0.06431441147579423</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1508155098160196</v>
+        <v>0.1506879726364405</v>
       </c>
     </row>
     <row r="19">
@@ -6588,19 +6588,19 @@
         <v>14891</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8571</v>
+        <v>8285</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23525</v>
+        <v>23504</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.111508442826202</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06418428354335251</v>
+        <v>0.06204119781924728</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1761669490860883</v>
+        <v>0.1760061195179588</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -6609,19 +6609,19 @@
         <v>4930</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1099</v>
+        <v>1836</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12913</v>
+        <v>12342</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0661132894743548</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01473926660005932</v>
+        <v>0.02462662808738536</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1731853846238298</v>
+        <v>0.1655275264420629</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -6630,19 +6630,19 @@
         <v>19820</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12618</v>
+        <v>12600</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30364</v>
+        <v>30482</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09524357477027155</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06063597139620067</v>
+        <v>0.06054744556253001</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1459106948067963</v>
+        <v>0.1464780021666548</v>
       </c>
     </row>
     <row r="20">
@@ -6659,7 +6659,7 @@
         <v>4396</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1030</v>
+        <v>1336</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>10128</v>
@@ -6668,10 +6668,10 @@
         <v>0.0329200918826692</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007709730762083242</v>
+        <v>0.01000169459981113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.075845907825332</v>
+        <v>0.07584615958350638</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6680,19 +6680,19 @@
         <v>4027</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9493</v>
+        <v>9161</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05400382176798089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01363038000267322</v>
+        <v>0.01384311960585558</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1273229856010236</v>
+        <v>0.1228583088579096</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -6701,19 +6701,19 @@
         <v>8423</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4069</v>
+        <v>4054</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16320</v>
+        <v>16569</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04047429226290691</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01955210714387573</v>
+        <v>0.01948032430294546</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07842414752512297</v>
+        <v>0.07962060272741776</v>
       </c>
     </row>
     <row r="21">
@@ -6730,19 +6730,19 @@
         <v>64433</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>53299</v>
+        <v>54254</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>76316</v>
+        <v>76697</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4825031712299225</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3991203667114747</v>
+        <v>0.4062773595760141</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5714861451168884</v>
+        <v>0.5743390438718318</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -6751,19 +6751,19 @@
         <v>50331</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>41747</v>
+        <v>42078</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>58067</v>
+        <v>58009</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6750204551869143</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5598985208420418</v>
+        <v>0.564337984016953</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7787775034071364</v>
+        <v>0.777999460685209</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>112</v>
@@ -6772,19 +6772,19 @@
         <v>114764</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>99932</v>
+        <v>100603</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>129758</v>
+        <v>128818</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5514812006194666</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4802065827563171</v>
+        <v>0.4834293785413115</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6235306740985379</v>
+        <v>0.6190152731386218</v>
       </c>
     </row>
     <row r="22">
@@ -6805,19 +6805,19 @@
         <v>28035</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19472</v>
+        <v>20387</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39638</v>
+        <v>39385</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1588498388920175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1103292810867572</v>
+        <v>0.1155164445039105</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2245951739201498</v>
+        <v>0.2231617373366638</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -6826,19 +6826,19 @@
         <v>10621</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5300</v>
+        <v>5438</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18823</v>
+        <v>18638</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08770104020676632</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04376042803805422</v>
+        <v>0.04489900961081068</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1554199577896991</v>
+        <v>0.1538933718100972</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -6847,19 +6847,19 @@
         <v>38656</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28384</v>
+        <v>27540</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51439</v>
+        <v>50014</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1298953238206609</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09537687059975361</v>
+        <v>0.09254169841531</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1728487544581344</v>
+        <v>0.1680588192325378</v>
       </c>
     </row>
     <row r="23">
@@ -6876,19 +6876,19 @@
         <v>22126</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14271</v>
+        <v>15111</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32735</v>
+        <v>31875</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1253660808708389</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08085920750987891</v>
+        <v>0.08562252541824023</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1854825354754018</v>
+        <v>0.1806056552870807</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -6897,19 +6897,19 @@
         <v>18335</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11103</v>
+        <v>11101</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27969</v>
+        <v>28156</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1513932659756118</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09167726000768342</v>
+        <v>0.0916609385314697</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.230943213983644</v>
+        <v>0.2324836830564328</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>39</v>
@@ -6918,19 +6918,19 @@
         <v>40461</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29668</v>
+        <v>29568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>53722</v>
+        <v>54259</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1359580309431787</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09969255158252736</v>
+        <v>0.09935666186838631</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1805204257564558</v>
+        <v>0.1823240156587967</v>
       </c>
     </row>
     <row r="24">
@@ -6947,19 +6947,19 @@
         <v>24163</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15552</v>
+        <v>16415</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34455</v>
+        <v>37320</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1369097567045447</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08811861366344945</v>
+        <v>0.09300744386777457</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1952257829159707</v>
+        <v>0.2114564993981989</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -6968,19 +6968,19 @@
         <v>18320</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10852</v>
+        <v>10532</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29111</v>
+        <v>27942</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1512683121882033</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0896017595755465</v>
+        <v>0.08695952152465644</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2403721891188342</v>
+        <v>0.2307145207408125</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>38</v>
@@ -6989,19 +6989,19 @@
         <v>42483</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30452</v>
+        <v>30309</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>55011</v>
+        <v>55892</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1427530740737343</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1023250660707555</v>
+        <v>0.1018459977487669</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.184848989541656</v>
+        <v>0.1878098486018235</v>
       </c>
     </row>
     <row r="25">
@@ -7018,19 +7018,19 @@
         <v>21983</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13828</v>
+        <v>14102</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32785</v>
+        <v>32032</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1245600748630845</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07835121606288792</v>
+        <v>0.07990173270609668</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1857661509650437</v>
+        <v>0.1814986322730666</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -7039,19 +7039,19 @@
         <v>9383</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4949</v>
+        <v>4378</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16898</v>
+        <v>16289</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07747659500253995</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04086298400497206</v>
+        <v>0.0361526458413068</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1395292389582768</v>
+        <v>0.1344972596850331</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -7060,19 +7060,19 @@
         <v>31366</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21621</v>
+        <v>21482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43369</v>
+        <v>42740</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.105399114278705</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07265173545045406</v>
+        <v>0.07218467974266769</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1457292277468341</v>
+        <v>0.1436177160417962</v>
       </c>
     </row>
     <row r="26">
@@ -7089,19 +7089,19 @@
         <v>11421</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6389</v>
+        <v>6420</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19414</v>
+        <v>19622</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06471225913164651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03619854402920168</v>
+        <v>0.03637533160415692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1100032328495904</v>
+        <v>0.1111828375539651</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -7110,19 +7110,19 @@
         <v>7406</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3153</v>
+        <v>3117</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13895</v>
+        <v>13896</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06114788161299424</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0260311046611423</v>
+        <v>0.02573333243762157</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1147340855042009</v>
+        <v>0.1147384263969254</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -7131,19 +7131,19 @@
         <v>18826</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11460</v>
+        <v>11197</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28053</v>
+        <v>29199</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06326171007824112</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03850905377636353</v>
+        <v>0.0376259025863892</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09426487719776161</v>
+        <v>0.09811447935491975</v>
       </c>
     </row>
     <row r="27">
@@ -7160,19 +7160,19 @@
         <v>116398</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>102423</v>
+        <v>102878</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>128740</v>
+        <v>127735</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6595234148328594</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5803405802881169</v>
+        <v>0.5829197640906488</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7294566956719277</v>
+        <v>0.7237584979704609</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>76</v>
@@ -7181,19 +7181,19 @@
         <v>86937</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>76594</v>
+        <v>75471</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>95995</v>
+        <v>95987</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7178394114324843</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6324423921695306</v>
+        <v>0.6231627955205261</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7926320032132896</v>
+        <v>0.792564483005169</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>191</v>
@@ -7202,19 +7202,19 @@
         <v>203335</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>185420</v>
+        <v>186989</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>217816</v>
+        <v>220113</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6832555288480893</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6230560191357565</v>
+        <v>0.6283294843846533</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7319143964875021</v>
+        <v>0.7396341143218231</v>
       </c>
     </row>
     <row r="28">
@@ -7235,19 +7235,19 @@
         <v>116902</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>95799</v>
+        <v>98684</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>135668</v>
+        <v>138442</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1930682975635818</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1582155950777892</v>
+        <v>0.162979913051466</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2240605516341286</v>
+        <v>0.2286424064488473</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -7256,19 +7256,19 @@
         <v>30075</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19973</v>
+        <v>21072</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>40313</v>
+        <v>42181</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08956030299791151</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05947625936361996</v>
+        <v>0.06274948302073621</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1200474229790627</v>
+        <v>0.1256099926049707</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>142</v>
@@ -7277,19 +7277,19 @@
         <v>146977</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>126758</v>
+        <v>126415</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>170178</v>
+        <v>173082</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1561419393900269</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1346623145714921</v>
+        <v>0.1342973433690434</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1807896401604084</v>
+        <v>0.1838751697613233</v>
       </c>
     </row>
     <row r="29">
@@ -7306,19 +7306,19 @@
         <v>95051</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77311</v>
+        <v>77603</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112975</v>
+        <v>115216</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1569808661171471</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.127683014659122</v>
+        <v>0.1281642072574909</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.186582573894296</v>
+        <v>0.1902844161596026</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>44</v>
@@ -7327,19 +7327,19 @@
         <v>45732</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33981</v>
+        <v>33239</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>60495</v>
+        <v>61046</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1361848703406719</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1011927327805295</v>
+        <v>0.09898101775284218</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1801455812094535</v>
+        <v>0.1817883443133611</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>138</v>
@@ -7348,19 +7348,19 @@
         <v>140783</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>120473</v>
+        <v>119730</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>165284</v>
+        <v>163011</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.149561918509862</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1279855811603457</v>
+        <v>0.127196397960105</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.175590064443498</v>
+        <v>0.1731754547961596</v>
       </c>
     </row>
     <row r="30">
@@ -7377,19 +7377,19 @@
         <v>57326</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44650</v>
+        <v>43289</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72817</v>
+        <v>73200</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09467637602070376</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07374173301770416</v>
+        <v>0.07149427536276004</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1202609059253611</v>
+        <v>0.1208931596728652</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -7398,19 +7398,19 @@
         <v>43260</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30863</v>
+        <v>32578</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>56874</v>
+        <v>57290</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1288232297955589</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09190610851847164</v>
+        <v>0.09701412316007132</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1693644430624982</v>
+        <v>0.1706020966101033</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>95</v>
@@ -7419,19 +7419,19 @@
         <v>100586</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>83504</v>
+        <v>82540</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>122416</v>
+        <v>123362</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1068582268843134</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08871142418112429</v>
+        <v>0.0876867144835464</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1300490643128646</v>
+        <v>0.1310547499734259</v>
       </c>
     </row>
     <row r="31">
@@ -7448,19 +7448,19 @@
         <v>72502</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>57063</v>
+        <v>57075</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>90609</v>
+        <v>89798</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1197402863387319</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09424151453348434</v>
+        <v>0.0942619723759392</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1496453034013629</v>
+        <v>0.1483043487516094</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>27</v>
@@ -7469,19 +7469,19 @@
         <v>27462</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18727</v>
+        <v>17790</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>38459</v>
+        <v>38263</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08177869876120843</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05576816226675835</v>
+        <v>0.0529754594265789</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1145260989832519</v>
+        <v>0.1139416391904308</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>94</v>
@@ -7490,19 +7490,19 @@
         <v>99964</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>82592</v>
+        <v>81263</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>121094</v>
+        <v>120105</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.106197533572567</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0877422074895495</v>
+        <v>0.08633044215995492</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1286444819565619</v>
+        <v>0.1275941704749428</v>
       </c>
     </row>
     <row r="32">
@@ -7519,19 +7519,19 @@
         <v>30384</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>20479</v>
+        <v>21252</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>42101</v>
+        <v>44166</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05018046349868707</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0338216377445566</v>
+        <v>0.03509895880268631</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06953077507145611</v>
+        <v>0.07294218304500849</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -7540,19 +7540,19 @@
         <v>16107</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10022</v>
+        <v>9877</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25207</v>
+        <v>25433</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04796380810479448</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02984546885040462</v>
+        <v>0.02941134715494643</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07506472886320655</v>
+        <v>0.07573568030737318</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>45</v>
@@ -7561,19 +7561,19 @@
         <v>46491</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>35270</v>
+        <v>34427</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>61942</v>
+        <v>63009</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04938967423293341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03746892023641234</v>
+        <v>0.0365737268327407</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0658044304539854</v>
+        <v>0.06693812984380643</v>
       </c>
     </row>
     <row r="33">
@@ -7590,19 +7590,19 @@
         <v>364322</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>339884</v>
+        <v>340352</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>390273</v>
+        <v>388137</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6016936031039624</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5613329628371764</v>
+        <v>0.5621053924015181</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6445516568805778</v>
+        <v>0.6410244520973802</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>218</v>
@@ -7611,19 +7611,19 @@
         <v>234281</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>218557</v>
+        <v>217289</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>251208</v>
+        <v>251451</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6976616030812695</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.6508375961831104</v>
+        <v>0.647060162328379</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7480666747539766</v>
+        <v>0.7487904730075948</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>571</v>
@@ -7632,19 +7632,19 @@
         <v>598604</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>567761</v>
+        <v>568423</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>626975</v>
+        <v>629815</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6359300768684447</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6031639810568723</v>
+        <v>0.6038671097022204</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6660709451025458</v>
+        <v>0.6690875889087129</v>
       </c>
     </row>
     <row r="34">
